--- a/Documentation/Shot Classification Results/Shot Classification Models.xlsx
+++ b/Documentation/Shot Classification Results/Shot Classification Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umair\Documents\GitHub\ShotSense\Documentation\Shot Classification Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD2A68-2B27-4BD2-A13B-54F0122EFBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE52180-78DA-4B43-9581-D410F57EB213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Model Architecture</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Pre-Trained Model</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -212,9 +215,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -224,12 +225,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -239,9 +236,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -257,9 +252,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -269,15 +263,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D289C28B-A594-4DE4-A82A-7EA0A76799D9}">
-  <dimension ref="C4:O24"/>
+  <dimension ref="B4:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,269 +607,239 @@
     <col min="15" max="15" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="6" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>45246</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.61280000000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="3:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
       <c r="O9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="E24" s="14" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Documentation/Shot Classification Results/Shot Classification Models.xlsx
+++ b/Documentation/Shot Classification Results/Shot Classification Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umair\Documents\GitHub\ShotSense\Documentation\Shot Classification Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE52180-78DA-4B43-9581-D410F57EB213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EFC348-F502-4580-849B-1A00445B78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Model Architecture</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>1 hr 02 mins</t>
+  </si>
+  <si>
+    <t>EfficientNetB7</t>
+  </si>
+  <si>
+    <t>EfficientNetB5</t>
+  </si>
+  <si>
+    <t>(3, 15, 224, 224, 3)</t>
+  </si>
+  <si>
+    <t>1 hr 30 mins</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>approx 2 hr</t>
+  </si>
+  <si>
+    <t>Yes (last 4 layers)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -269,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -613,19 +636,19 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -642,16 +665,16 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>45246</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -671,46 +694,97 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
+      <c r="B7" s="15">
+        <v>45249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.45500000000000002</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
+      <c r="B8" s="15">
+        <v>45250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="15">
+        <v>45250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.11</v>
+      </c>
       <c r="O9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -719,9 +793,6 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
@@ -730,9 +801,6 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
       <c r="F12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
@@ -741,9 +809,6 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
@@ -752,9 +817,6 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
       <c r="F14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
@@ -763,9 +825,6 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
@@ -774,9 +833,6 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
@@ -785,9 +841,6 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
       <c r="F17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
@@ -796,9 +849,6 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
       <c r="F18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
@@ -807,9 +857,6 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
       <c r="F19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
@@ -818,9 +865,6 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
       <c r="F20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>

--- a/Documentation/Shot Classification Results/Shot Classification Models.xlsx
+++ b/Documentation/Shot Classification Results/Shot Classification Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umair\Documents\GitHub\ShotSense\Documentation\Shot Classification Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EFC348-F502-4580-849B-1A00445B78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BDD230-CB47-4314-87A1-F15C5CAF1BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
+    <workbookView xWindow="1176" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Model Architecture</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Yes (last 4 layers)</t>
+  </si>
+  <si>
+    <t>approx 3 hr</t>
   </si>
 </sst>
 </file>
@@ -613,20 +616,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D289C28B-A594-4DE4-A82A-7EA0A76799D9}">
   <dimension ref="B4:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -784,12 +787,33 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="15">
+        <v>45252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.495</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>

--- a/Documentation/Shot Classification Results/Shot Classification Models.xlsx
+++ b/Documentation/Shot Classification Results/Shot Classification Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umair\Documents\GitHub\ShotSense\Documentation\Shot Classification Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BDD230-CB47-4314-87A1-F15C5CAF1BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABEA1A-F4D4-42F0-A820-B204918A868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Model Architecture</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>approx 3 hr</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>used keras_videos for preprocessing this time. Useful to produce sequential data that can be input to recurrent layers(lstm, gru etc)</t>
+  </si>
+  <si>
+    <t>19 minutes</t>
+  </si>
+  <si>
+    <t>potentially heavily overfit</t>
   </si>
 </sst>
 </file>
@@ -129,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -252,18 +264,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -279,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -297,9 +300,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D289C28B-A594-4DE4-A82A-7EA0A76799D9}">
   <dimension ref="B4:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,6 +642,7 @@
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
@@ -642,17 +659,20 @@
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>5</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>3</v>
@@ -668,21 +688,22 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>45246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="G6" s="4"/>
       <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
@@ -697,21 +718,22 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>45249</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="I7" s="11" t="s">
         <v>14</v>
       </c>
@@ -726,21 +748,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>45250</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="4"/>
       <c r="I8" s="11" t="s">
         <v>14</v>
       </c>
@@ -755,21 +778,22 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>45250</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="G9" s="4"/>
       <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
@@ -787,21 +811,22 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>45252</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="G10" s="4"/>
       <c r="I10" s="11" t="s">
         <v>14</v>
       </c>
@@ -816,16 +841,47 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="13">
+        <v>45256</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="L12" s="3"/>
@@ -833,7 +889,11 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="L13" s="3"/>
@@ -841,7 +901,11 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="L14" s="3"/>
@@ -849,7 +913,11 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="L15" s="3"/>
@@ -857,7 +925,11 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="L16" s="3"/>
@@ -865,7 +937,11 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="L17" s="3"/>
@@ -873,7 +949,11 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
       <c r="L18" s="3"/>
@@ -881,7 +961,11 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="L19" s="3"/>
@@ -889,7 +973,11 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="L20" s="3"/>
@@ -900,7 +988,8 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="I21" s="5"/>
       <c r="J21" s="7"/>
       <c r="L21" s="5"/>

--- a/Documentation/Shot Classification Results/Shot Classification Models.xlsx
+++ b/Documentation/Shot Classification Results/Shot Classification Models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umair\Documents\GitHub\ShotSense\Documentation\Shot Classification Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABEA1A-F4D4-42F0-A820-B204918A868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDE3FFE-5BDD-4EC7-AB27-74D65F73C1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B867722E-1A22-4D5D-A785-8333682FAF9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Model Architecture</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Accuracy/Test</t>
   </si>
   <si>
-    <t>Input Shape (batch size, n_frames, widht, height, rgb)</t>
-  </si>
-  <si>
     <t>Accuracy/Train</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>EfficientNetB2</t>
   </si>
   <si>
-    <t>more  metrics will be added later on</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -108,16 +102,7 @@
     <t>approx 3 hr</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>used keras_videos for preprocessing this time. Useful to produce sequential data that can be input to recurrent layers(lstm, gru etc)</t>
-  </si>
-  <si>
-    <t>19 minutes</t>
-  </si>
-  <si>
-    <t>potentially heavily overfit</t>
+    <t>19 mins</t>
   </si>
 </sst>
 </file>
@@ -141,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,36 +138,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -232,32 +187,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -267,13 +200,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -282,45 +226,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,6 +353,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5FF3951C-167D-4750-A9D5-416E1CCAA0EF}" name="Table4" displayName="Table4" ref="B5:J11" totalsRowShown="0" tableBorderDxfId="9">
+  <autoFilter ref="B5:J11" xr:uid="{5FF3951C-167D-4750-A9D5-416E1CCAA0EF}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A7DC15EA-8FB1-4A1F-9C79-3947F8FC3E27}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1F6BFBC6-E724-4282-85D7-FF97E39BF828}" name="Model Architecture" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{EF909794-F6BC-44E3-9C7B-75C126AE5515}" name="Pre-Trained Model" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EAF58180-C883-4C22-9EDA-B4E974237178}" name="Trainable Parameters" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{31C01937-CB77-4648-B2C7-9ADAD01FFC01}" name="Input Shape" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{ADC8297E-8F9C-4177-9E9C-37C4E74854BD}" name="Training Time/GPU" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{348D83AC-B123-42F7-AA98-94AD316D7078}" name="Training Time/CPU" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{35CB856B-2A6E-48F4-825B-9FDBBFF54E18}" name="Accuracy/Train" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{CBDFF6CD-E533-48E0-A202-B83F041D432C}" name="Accuracy/Test" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,377 +670,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D289C28B-A594-4DE4-A82A-7EA0A76799D9}">
-  <dimension ref="B4:O24"/>
+  <dimension ref="B4:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J11" sqref="B5:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>45246</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>45249</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>45250</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>45246</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>45250</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>45252</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>45256</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.61280000000000001</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
-        <v>45249</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="I7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
-        <v>45250</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="I8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.53969999999999996</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
-        <v>45250</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="I9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="O9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
-        <v>45252</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="I10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>45256</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="J11" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="N11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>